--- a/Patrick/result/filtered_kmean/filtered_ht0.xlsx
+++ b/Patrick/result/filtered_kmean/filtered_ht0.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &lt;= 3</t>
+          <t>Duplikasi &lt; 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &gt; 3</t>
+          <t>Duplikasi =&gt; 3</t>
         </is>
       </c>
     </row>
@@ -477,12 +477,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>14734</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -501,36 +501,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>18212</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>19081</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>2055</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>21684</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>23551</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,24 +633,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>27201</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>3011</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>4426</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>4846</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -825,12 +825,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>7277</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -885,12 +885,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>7841</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>E2259</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1065,24 +1065,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>T317</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>T408</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
